--- a/risultato/FASCIA C - BIANCA-BIANCOGIALLA-GIALLA.xlsx
+++ b/risultato/FASCIA C - BIANCA-BIANCOGIALLA-GIALLA.xlsx
@@ -574,7 +574,7 @@
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="6" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B4" s="7" t="inlineStr">
         <is>
@@ -583,12 +583,12 @@
       </c>
       <c r="C4" s="7" t="inlineStr">
         <is>
-          <t>GIANNINO</t>
+          <t>GRIGOLO</t>
         </is>
       </c>
       <c r="D4" s="7" t="inlineStr">
         <is>
-          <t>GIOVANNI BATTISTA</t>
+          <t>ENRICO</t>
         </is>
       </c>
       <c r="E4" s="7" t="inlineStr"/>
@@ -601,21 +601,21 @@
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="10" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>SCUOLA KARATE GALLIERA/ROSSANO</t>
+          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>GRIGOLO</t>
+          <t xml:space="preserve">LANDO </t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr">
         <is>
-          <t>ENRICO</t>
+          <t>NICOLA</t>
         </is>
       </c>
       <c r="E5" s="11" t="inlineStr"/>
@@ -628,21 +628,21 @@
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="6" t="n">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="B6" s="7" t="inlineStr">
         <is>
-          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
+          <t>ASD SCUOLA KARATE MIGNAGOLA</t>
         </is>
       </c>
       <c r="C6" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">LANDO </t>
+          <t>SARACI</t>
         </is>
       </c>
       <c r="D6" s="7" t="inlineStr">
         <is>
-          <t>NICOLA</t>
+          <t>ERISA</t>
         </is>
       </c>
       <c r="E6" s="7" t="inlineStr"/>
@@ -655,7 +655,7 @@
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="10" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
@@ -664,12 +664,12 @@
       </c>
       <c r="C7" s="11" t="inlineStr">
         <is>
-          <t>MERLO</t>
+          <t>SCHIAVON</t>
         </is>
       </c>
       <c r="D7" s="11" t="inlineStr">
         <is>
-          <t>LORENZO</t>
+          <t>DAVIDE</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr"/>
@@ -682,21 +682,21 @@
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" s="6" t="n">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>ASD KARATE TREVIGNANO &amp; MONTEBELLUNA</t>
+          <t>SCUOLA KARATE GALLIERA/ROSSANO</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr">
         <is>
-          <t>SCHIAVON</t>
+          <t>HUZUM</t>
         </is>
       </c>
       <c r="D8" s="7" t="inlineStr">
         <is>
-          <t>DAVIDE</t>
+          <t>ALEX</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr"/>
@@ -709,21 +709,21 @@
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" s="10" t="n">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="B9" s="11" t="inlineStr">
         <is>
-          <t>SCUOLA KARATE GALLIERA/ROSSANO</t>
+          <t>ASD KARATE TREVIGNANO &amp; MONTEBELLUNA</t>
         </is>
       </c>
       <c r="C9" s="11" t="inlineStr">
         <is>
-          <t>HUZUM</t>
+          <t>MERLO</t>
         </is>
       </c>
       <c r="D9" s="11" t="inlineStr">
         <is>
-          <t>ALEX</t>
+          <t>LORENZO</t>
         </is>
       </c>
       <c r="E9" s="11" t="inlineStr"/>
@@ -736,21 +736,21 @@
     </row>
     <row r="10" ht="30" customHeight="1">
       <c r="A10" s="6" t="n">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>ASD SCUOLA KARATE MIGNAGOLA</t>
+          <t>SCUOLA KARATE GALLIERA/ROSSANO</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr">
         <is>
-          <t>SARACI</t>
+          <t>GIANNINO</t>
         </is>
       </c>
       <c r="D10" s="7" t="inlineStr">
         <is>
-          <t>ERISA</t>
+          <t>GIOVANNI BATTISTA</t>
         </is>
       </c>
       <c r="E10" s="7" t="inlineStr"/>

--- a/risultato/FASCIA C - BIANCA-BIANCOGIALLA-GIALLA.xlsx
+++ b/risultato/FASCIA C - BIANCA-BIANCOGIALLA-GIALLA.xlsx
@@ -129,7 +129,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,7 +574,7 @@
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="6" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B4" s="7" t="inlineStr">
         <is>
@@ -601,21 +601,21 @@
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="10" t="n">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
+          <t>ASD KARATE TREVIGNANO &amp; MONTEBELLUNA</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">LANDO </t>
+          <t>SCHIAVON</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr">
         <is>
-          <t>NICOLA</t>
+          <t>DAVIDE</t>
         </is>
       </c>
       <c r="E5" s="11" t="inlineStr"/>
@@ -628,21 +628,21 @@
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="6" t="n">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="B6" s="7" t="inlineStr">
         <is>
-          <t>ASD SCUOLA KARATE MIGNAGOLA</t>
+          <t>SCUOLA KARATE GALLIERA/ROSSANO</t>
         </is>
       </c>
       <c r="C6" s="7" t="inlineStr">
         <is>
-          <t>SARACI</t>
+          <t>GIANNINO</t>
         </is>
       </c>
       <c r="D6" s="7" t="inlineStr">
         <is>
-          <t>ERISA</t>
+          <t>GIOVANNI BATTISTA</t>
         </is>
       </c>
       <c r="E6" s="7" t="inlineStr"/>
@@ -655,21 +655,21 @@
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="10" t="n">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>ASD KARATE TREVIGNANO &amp; MONTEBELLUNA</t>
+          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
         </is>
       </c>
       <c r="C7" s="11" t="inlineStr">
         <is>
-          <t>SCHIAVON</t>
+          <t xml:space="preserve">LANDO </t>
         </is>
       </c>
       <c r="D7" s="11" t="inlineStr">
         <is>
-          <t>DAVIDE</t>
+          <t>NICOLA</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr"/>
@@ -682,7 +682,7 @@
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" s="6" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
@@ -709,21 +709,21 @@
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" s="10" t="n">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="B9" s="11" t="inlineStr">
         <is>
-          <t>ASD KARATE TREVIGNANO &amp; MONTEBELLUNA</t>
+          <t>SCUOLA KARATE CASTELFRANCO</t>
         </is>
       </c>
       <c r="C9" s="11" t="inlineStr">
         <is>
-          <t>MERLO</t>
+          <t>DE GIORGIO</t>
         </is>
       </c>
       <c r="D9" s="11" t="inlineStr">
         <is>
-          <t>LORENZO</t>
+          <t>GIULIA</t>
         </is>
       </c>
       <c r="E9" s="11" t="inlineStr"/>
@@ -736,21 +736,21 @@
     </row>
     <row r="10" ht="30" customHeight="1">
       <c r="A10" s="6" t="n">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>SCUOLA KARATE GALLIERA/ROSSANO</t>
+          <t>ASD KARATE TREVIGNANO &amp; MONTEBELLUNA</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr">
         <is>
-          <t>GIANNINO</t>
+          <t>MERLO</t>
         </is>
       </c>
       <c r="D10" s="7" t="inlineStr">
         <is>
-          <t>GIOVANNI BATTISTA</t>
+          <t>LORENZO</t>
         </is>
       </c>
       <c r="E10" s="7" t="inlineStr"/>
@@ -759,7 +759,34 @@
       <c r="H10" s="8" t="inlineStr"/>
       <c r="I10" s="8" t="inlineStr"/>
       <c r="J10" s="8" t="inlineStr"/>
-      <c r="K10" s="14" t="inlineStr"/>
+      <c r="K10" s="9" t="inlineStr"/>
+    </row>
+    <row r="11" ht="30" customHeight="1">
+      <c r="A11" s="10" t="n">
+        <v>120</v>
+      </c>
+      <c r="B11" s="11" t="inlineStr">
+        <is>
+          <t>ASD SCUOLA KARATE MIGNAGOLA</t>
+        </is>
+      </c>
+      <c r="C11" s="11" t="inlineStr">
+        <is>
+          <t>SARACI</t>
+        </is>
+      </c>
+      <c r="D11" s="11" t="inlineStr">
+        <is>
+          <t>ERISA</t>
+        </is>
+      </c>
+      <c r="E11" s="11" t="inlineStr"/>
+      <c r="F11" s="12" t="inlineStr"/>
+      <c r="G11" s="12" t="inlineStr"/>
+      <c r="H11" s="12" t="inlineStr"/>
+      <c r="I11" s="12" t="inlineStr"/>
+      <c r="J11" s="12" t="inlineStr"/>
+      <c r="K11" s="14" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/risultato/FASCIA C - BIANCA-BIANCOGIALLA-GIALLA.xlsx
+++ b/risultato/FASCIA C - BIANCA-BIANCOGIALLA-GIALLA.xlsx
@@ -129,7 +129,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,21 +574,21 @@
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="6" t="n">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="B4" s="7" t="inlineStr">
         <is>
-          <t>SCUOLA KARATE GALLIERA/ROSSANO</t>
+          <t>ASD KARATE TREVIGNANO &amp; MONTEBELLUNA</t>
         </is>
       </c>
       <c r="C4" s="7" t="inlineStr">
         <is>
-          <t>GRIGOLO</t>
+          <t>SCHIAVON</t>
         </is>
       </c>
       <c r="D4" s="7" t="inlineStr">
         <is>
-          <t>ENRICO</t>
+          <t>DAVIDE</t>
         </is>
       </c>
       <c r="E4" s="7" t="inlineStr"/>
@@ -601,21 +601,21 @@
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="10" t="n">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>ASD KARATE TREVIGNANO &amp; MONTEBELLUNA</t>
+          <t>SCUOLA KARATE CASTELFRANCO</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>SCHIAVON</t>
+          <t>DE GIORGIO</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr">
         <is>
-          <t>DAVIDE</t>
+          <t>GIULIA</t>
         </is>
       </c>
       <c r="E5" s="11" t="inlineStr"/>
@@ -628,21 +628,21 @@
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="6" t="n">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B6" s="7" t="inlineStr">
         <is>
-          <t>SCUOLA KARATE GALLIERA/ROSSANO</t>
+          <t>ASD KI KAI DOJO CARBONERA</t>
         </is>
       </c>
       <c r="C6" s="7" t="inlineStr">
         <is>
-          <t>GIANNINO</t>
+          <t>PSHENYCHNYI</t>
         </is>
       </c>
       <c r="D6" s="7" t="inlineStr">
         <is>
-          <t>GIOVANNI BATTISTA</t>
+          <t>EUGENYO</t>
         </is>
       </c>
       <c r="E6" s="7" t="inlineStr"/>
@@ -655,21 +655,21 @@
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="10" t="n">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
+          <t>ASD KARATE TREVIGNANO &amp; MONTEBELLUNA</t>
         </is>
       </c>
       <c r="C7" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">LANDO </t>
+          <t>MERLO</t>
         </is>
       </c>
       <c r="D7" s="11" t="inlineStr">
         <is>
-          <t>NICOLA</t>
+          <t>LORENZO</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr"/>
@@ -682,21 +682,21 @@
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" s="6" t="n">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>SCUOLA KARATE GALLIERA/ROSSANO</t>
+          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr">
         <is>
-          <t>HUZUM</t>
+          <t xml:space="preserve">LANDO </t>
         </is>
       </c>
       <c r="D8" s="7" t="inlineStr">
         <is>
-          <t>ALEX</t>
+          <t>NICOLA</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr"/>
@@ -709,21 +709,21 @@
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" s="10" t="n">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B9" s="11" t="inlineStr">
         <is>
-          <t>SCUOLA KARATE CASTELFRANCO</t>
+          <t>SCUOLA KARATE GALLIERA/ROSSANO</t>
         </is>
       </c>
       <c r="C9" s="11" t="inlineStr">
         <is>
-          <t>DE GIORGIO</t>
+          <t>GIANNINO</t>
         </is>
       </c>
       <c r="D9" s="11" t="inlineStr">
         <is>
-          <t>GIULIA</t>
+          <t>GIOVANNI BATTISTA</t>
         </is>
       </c>
       <c r="E9" s="11" t="inlineStr"/>
@@ -736,21 +736,21 @@
     </row>
     <row r="10" ht="30" customHeight="1">
       <c r="A10" s="6" t="n">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>ASD KARATE TREVIGNANO &amp; MONTEBELLUNA</t>
+          <t>SCUOLA KARATE GALLIERA/ROSSANO</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr">
         <is>
-          <t>MERLO</t>
+          <t>GRIGOLO</t>
         </is>
       </c>
       <c r="D10" s="7" t="inlineStr">
         <is>
-          <t>LORENZO</t>
+          <t>ENRICO</t>
         </is>
       </c>
       <c r="E10" s="7" t="inlineStr"/>
@@ -763,7 +763,7 @@
     </row>
     <row r="11" ht="30" customHeight="1">
       <c r="A11" s="10" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B11" s="11" t="inlineStr">
         <is>
@@ -786,7 +786,34 @@
       <c r="H11" s="12" t="inlineStr"/>
       <c r="I11" s="12" t="inlineStr"/>
       <c r="J11" s="12" t="inlineStr"/>
-      <c r="K11" s="14" t="inlineStr"/>
+      <c r="K11" s="13" t="inlineStr"/>
+    </row>
+    <row r="12" ht="30" customHeight="1">
+      <c r="A12" s="6" t="n">
+        <v>58</v>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>SCUOLA KARATE GALLIERA/ROSSANO</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr">
+        <is>
+          <t>HUZUM</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr">
+        <is>
+          <t>ALEX</t>
+        </is>
+      </c>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr"/>
+      <c r="H12" s="8" t="inlineStr"/>
+      <c r="I12" s="8" t="inlineStr"/>
+      <c r="J12" s="8" t="inlineStr"/>
+      <c r="K12" s="14" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">
